--- a/TestData/LV_T1697AndT1698DNDOnOffEnableAndDisableMode.xlsx
+++ b/TestData/LV_T1697AndT1698DNDOnOffEnableAndDisableMode.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E92B7-D98F-4B7D-935F-57591DB304E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA602A77-D614-4F6A-9808-1696C6DDE673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
-    <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="AppName" sheetId="7" r:id="rId3"/>
-    <sheet name="ModuleName" sheetId="8" r:id="rId4"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
+    <sheet name="AddOpportunity" sheetId="1" r:id="rId2"/>
+    <sheet name="OppJobTypes" sheetId="9" r:id="rId3"/>
+    <sheet name="AppName" sheetId="7" r:id="rId4"/>
+    <sheet name="ModuleName" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>Client</t>
   </si>
@@ -198,7 +199,22 @@
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Brian Miller</t>
+    <t>Jennie Stewart</t>
+  </si>
+  <si>
+    <t>Directs</t>
+  </si>
+  <si>
+    <t>Primary Capital Advisory</t>
+  </si>
+  <si>
+    <t>GP Stake Sale</t>
+  </si>
+  <si>
+    <t>LP-Led Secondaries</t>
+  </si>
+  <si>
+    <t>JobTypes</t>
   </si>
 </sst>
 </file>
@@ -528,16 +544,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -724,61 +784,410 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E73D3C-2745-4491-BE01-6837E8FCBC0E}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8244481F-F1B5-4BC7-BE8A-260AA0DF5D37}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,15 +1210,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB45B32-4FF3-421E-8C03-B189CD186655}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
